--- a/documentation/budget/effort_commitment - full times.xlsx
+++ b/documentation/budget/effort_commitment - full times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\Year 2\Professional Development\Phishing-Email-Button\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD42D6-D93F-416A-84ED-09187881E388}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3DFDA-A3AA-49AE-B66A-C97586883721}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="48">
   <si>
     <t>Starting Criteria</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Neil Fredrickson (Tech Lead)</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Christmas</t>
   </si>
 </sst>
 </file>
@@ -198,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +232,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -409,6 +427,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4048D-0B48-4A1A-A71C-86F5C3BC7E01}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="L12" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1437,6 +1457,18 @@
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:33" ht="15.5" x14ac:dyDescent="0.35">

--- a/documentation/budget/effort_commitment - full times.xlsx
+++ b/documentation/budget/effort_commitment - full times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\Year 2\Professional Development\Phishing-Email-Button\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3DFDA-A3AA-49AE-B66A-C97586883721}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE81B8-AE04-4F08-A5AD-6A5788C37F8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="48">
   <si>
     <t>Starting Criteria</t>
   </si>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4048D-0B48-4A1A-A71C-86F5C3BC7E01}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L12" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1794,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K24" s="24" t="s">
         <v>16</v>
@@ -1806,7 +1806,7 @@
         <v>12</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O24" s="24" t="s">
         <v>12</v>
@@ -1846,11 +1846,11 @@
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC29" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>45.787500000000001</v>
+        <v>35.612500000000004</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD29" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>80.7</v>
+        <v>90.787500000000009</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE29" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF29" si="5">SUM(AC24:AE24)</f>
-        <v>171.75</v>
+        <v>171.66250000000002</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1881,7 +1881,7 @@
         <v>12</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>16</v>
@@ -1892,8 +1892,8 @@
       <c r="M25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="17" t="s">
-        <v>12</v>
+      <c r="N25" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="O25" s="17" t="s">
         <v>12</v>
@@ -1933,11 +1933,11 @@
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>40.700000000000003</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>80.7</v>
+        <v>90.787500000000009</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>166.66250000000002</v>
+        <v>166.57500000000002</v>
       </c>
     </row>
     <row r="26" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1968,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>16</v>
@@ -1979,8 +1979,8 @@
       <c r="M26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="17" t="s">
-        <v>12</v>
+      <c r="N26" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="O26" s="17" t="s">
         <v>12</v>
@@ -2020,11 +2020,11 @@
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>45.787500000000001</v>
+        <v>35.612500000000004</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>80.7</v>
+        <v>90.787500000000009</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>171.75</v>
+        <v>171.66250000000002</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2055,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>16</v>
@@ -2066,8 +2066,8 @@
       <c r="M27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="17" t="s">
-        <v>12</v>
+      <c r="N27" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="O27" s="17" t="s">
         <v>12</v>
@@ -2107,11 +2107,11 @@
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>45.787500000000001</v>
+        <v>35.612500000000004</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>80.7</v>
+        <v>90.787500000000009</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>171.75</v>
+        <v>171.66250000000002</v>
       </c>
     </row>
     <row r="28" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
@@ -2142,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>16</v>
@@ -2153,8 +2153,8 @@
       <c r="M28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="17" t="s">
-        <v>12</v>
+      <c r="N28" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="O28" s="17" t="s">
         <v>12</v>
@@ -2194,11 +2194,11 @@
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>45.787500000000001</v>
+        <v>35.612500000000004</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>80.7</v>
+        <v>90.787500000000009</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="4"/>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>171.75</v>
+        <v>171.66250000000002</v>
       </c>
     </row>
     <row r="29" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2583,11 +2583,11 @@
       </c>
       <c r="AC36" s="16">
         <f>SUM(AC24:AC34)</f>
-        <v>223.85</v>
+        <v>172.97500000000002</v>
       </c>
       <c r="AD36" s="16">
         <f>SUM(AD24:AD34)</f>
-        <v>403.5</v>
+        <v>453.93750000000006</v>
       </c>
       <c r="AE36" s="16">
         <f>SUM(AE24:AE34)</f>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="AF36" s="16">
         <f>SUM(AF24:AF34)</f>
-        <v>853.66250000000002</v>
+        <v>853.22500000000014</v>
       </c>
       <c r="AG36" s="16" t="s">
         <v>4</v>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E30:Z33 S29:Z29 S28:T28 E24:O24 E29:Q29 L28:Q28 L25:O27 E25:K28">
+  <conditionalFormatting sqref="E30:Z33 S29:Z29 S28:T28 E24:O24 E29:Q29 O25:O27 O28:Q28 E25:N28">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>

--- a/documentation/budget/effort_commitment - full times.xlsx
+++ b/documentation/budget/effort_commitment - full times.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\Year 2\Professional Development\Phishing-Email-Button\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE81B8-AE04-4F08-A5AD-6A5788C37F8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A0CD4-6E2A-4EF5-9D8E-88BCD50F10DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
   </bookViews>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4048D-0B48-4A1A-A71C-86F5C3BC7E01}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1812,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="24" t="s">
         <v>16</v>
@@ -1830,7 +1830,7 @@
         <v>12</v>
       </c>
       <c r="V24" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W24" s="24" t="s">
         <v>16</v>
@@ -1839,26 +1839,26 @@
         <v>16</v>
       </c>
       <c r="Y24" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z24" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC29" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>35.612500000000004</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD29" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>90.787500000000009</v>
+        <v>131.13750000000002</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE29" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF29" si="5">SUM(AC24:AE24)</f>
-        <v>171.66250000000002</v>
+        <v>161.66250000000002</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1898,11 +1898,11 @@
       <c r="O25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="17" t="s">
-        <v>12</v>
+      <c r="P25" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R25" s="17" t="s">
         <v>12</v>
@@ -1917,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="V25" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W25" s="24" t="s">
         <v>16</v>
@@ -1926,10 +1926,10 @@
         <v>16</v>
       </c>
       <c r="Y25" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z25" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
@@ -1937,15 +1937,15 @@
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>90.787500000000009</v>
+        <v>121.05000000000001</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>166.57500000000002</v>
+        <v>151.57500000000002</v>
       </c>
     </row>
     <row r="26" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1985,8 +1985,8 @@
       <c r="O26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="17" t="s">
-        <v>12</v>
+      <c r="P26" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="Q26" s="17" t="s">
         <v>16</v>
@@ -2004,7 +2004,7 @@
         <v>12</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W26" s="24" t="s">
         <v>16</v>
@@ -2013,26 +2013,26 @@
         <v>16</v>
       </c>
       <c r="Y26" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z26" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>35.612500000000004</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>90.787500000000009</v>
+        <v>131.13750000000002</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>171.66250000000002</v>
+        <v>161.66250000000002</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2076,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R27" s="17" t="s">
         <v>12</v>
@@ -2091,7 +2091,7 @@
         <v>12</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W27" s="24" t="s">
         <v>16</v>
@@ -2100,10 +2100,10 @@
         <v>16</v>
       </c>
       <c r="Y27" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z27" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
@@ -2111,18 +2111,18 @@
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>90.787500000000009</v>
+        <v>110.96250000000001</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>171.66250000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+        <v>146.57500000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R28" s="17" t="s">
         <v>12</v>
@@ -2178,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W28" s="24" t="s">
         <v>16</v>
@@ -2187,10 +2187,10 @@
         <v>16</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z28" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
@@ -2198,18 +2198,18 @@
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>90.787500000000009</v>
+        <v>110.96250000000001</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="4"/>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>171.66250000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+        <v>146.57500000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="U29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="28" t="s">
+      <c r="V29" s="24" t="s">
         <v>23</v>
       </c>
       <c r="W29" s="28" t="s">
@@ -2583,19 +2583,19 @@
       </c>
       <c r="AC36" s="16">
         <f>SUM(AC24:AC34)</f>
-        <v>172.97500000000002</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="AD36" s="16">
         <f>SUM(AD24:AD34)</f>
-        <v>453.93750000000006</v>
+        <v>605.25</v>
       </c>
       <c r="AE36" s="16">
         <f>SUM(AE24:AE34)</f>
-        <v>226.3125</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="16">
         <f>SUM(AF24:AF34)</f>
-        <v>853.22500000000014</v>
+        <v>768.05000000000018</v>
       </c>
       <c r="AG36" s="16" t="s">
         <v>4</v>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E30:Z33 S29:Z29 S28:T28 E24:O24 E29:Q29 O25:O27 O28:Q28 E25:N28">
+  <conditionalFormatting sqref="E30:Z33 S29:U29 S28:T28 E24:O24 E29:Q29 O25:O27 O28:Q28 E25:N28 W29:Z29">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
@@ -3068,7 +3068,7 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Z24 P26:Q27 S26:T27 R26:R29 P25:T25 U25:Z28">
+  <conditionalFormatting sqref="P24:Z24 P27:Q27 S26:T27 R26:R29 Q25:T25 U25:U28 W25:Z28 V25:V29 Q26 P25:P26">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>

--- a/documentation/budget/effort_commitment - full times.xlsx
+++ b/documentation/budget/effort_commitment - full times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\Year 2\Professional Development\Phishing-Email-Button\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A0CD4-6E2A-4EF5-9D8E-88BCD50F10DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D6E374-6698-4092-8133-ED1A0E1875B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="49">
   <si>
     <t>Starting Criteria</t>
   </si>
@@ -168,13 +168,16 @@
     <t xml:space="preserve">Start Date </t>
   </si>
   <si>
-    <t>Neil Fredrickson (Tech Lead)</t>
-  </si>
-  <si>
     <t>Presentation</t>
   </si>
   <si>
     <t>Christmas</t>
+  </si>
+  <si>
+    <t>Neil Fredrickson (Tech)</t>
+  </si>
+  <si>
+    <t>SHOWCASE</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4048D-0B48-4A1A-A71C-86F5C3BC7E01}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1459,16 +1462,19 @@
         <v>38</v>
       </c>
       <c r="L19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="31" t="s">
-        <v>47</v>
-      </c>
       <c r="N19" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="Z19" s="30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:33" ht="15.5" x14ac:dyDescent="0.35">
@@ -1818,13 +1824,13 @@
         <v>16</v>
       </c>
       <c r="R24" s="24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S24" s="24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T24" s="24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U24" s="24" t="s">
         <v>12</v>
@@ -1846,19 +1852,19 @@
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC29" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>30.525000000000002</v>
+        <v>25.4375</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD29" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>131.13750000000002</v>
+        <v>121.05000000000001</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE29" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
-        <v>0</v>
+        <v>30.175000000000001</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF29" si="5">SUM(AC24:AE24)</f>
-        <v>161.66250000000002</v>
+        <v>176.66250000000002</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1908,10 +1914,10 @@
         <v>12</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U25" s="24" t="s">
         <v>12</v>
@@ -1937,15 +1943,15 @@
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>121.05000000000001</v>
+        <v>100.875</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30.175000000000001</v>
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>151.57500000000002</v>
+        <v>161.57500000000002</v>
       </c>
     </row>
     <row r="26" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1995,10 +2001,10 @@
         <v>12</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T26" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U26" s="24" t="s">
         <v>12</v>
@@ -2024,20 +2030,20 @@
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>131.13750000000002</v>
+        <v>110.96250000000001</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30.175000000000001</v>
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>161.66250000000002</v>
+        <v>171.66250000000002</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>23</v>
@@ -2085,7 +2091,7 @@
         <v>16</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U27" s="24" t="s">
         <v>12</v>
@@ -2107,11 +2113,11 @@
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>35.612500000000004</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>110.96250000000001</v>
+        <v>100.875</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
@@ -2119,7 +2125,7 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>146.57500000000002</v>
+        <v>141.57499999999999</v>
       </c>
     </row>
     <row r="28" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2172,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="U28" s="24" t="s">
         <v>12</v>
@@ -2198,7 +2204,7 @@
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>110.96250000000001</v>
+        <v>100.875</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="4"/>
@@ -2206,7 +2212,7 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>146.57500000000002</v>
+        <v>136.48750000000001</v>
       </c>
     </row>
     <row r="29" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2587,15 +2593,15 @@
       </c>
       <c r="AD36" s="16">
         <f>SUM(AD24:AD34)</f>
-        <v>605.25</v>
+        <v>534.63750000000005</v>
       </c>
       <c r="AE36" s="16">
         <f>SUM(AE24:AE34)</f>
-        <v>0</v>
+        <v>90.525000000000006</v>
       </c>
       <c r="AF36" s="16">
         <f>SUM(AF24:AF34)</f>
-        <v>768.05000000000018</v>
+        <v>787.96250000000009</v>
       </c>
       <c r="AG36" s="16" t="s">
         <v>4</v>
